--- a/LF/TAS/Benin/bj_lf_tas2_3_fts_result_202006.xlsx
+++ b/LF/TAS/Benin/bj_lf_tas2_3_fts_result_202006.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\TAS\Benin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86128E07-2E56-43DB-9D39-A5F338F7467A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0B083D-3FA7-4389-ADA2-D7C5D0973A05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="188">
   <si>
     <t>form_title</t>
   </si>
@@ -86,9 +86,6 @@
     <t>constraint_message::English</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
     <t>Enter Recorder ID</t>
   </si>
   <si>
@@ -200,12 +197,6 @@
     <t>d_eu_code</t>
   </si>
   <si>
-    <t>d_clusterID</t>
-  </si>
-  <si>
-    <t>Select Cluster ID</t>
-  </si>
-  <si>
     <t>d_IDType</t>
   </si>
   <si>
@@ -221,9 +212,6 @@
     <t>d_GenerateID</t>
   </si>
   <si>
-    <t>Enter unique ID from the diagnostic test (must be entered as AB-ABC-12345 upper case only with dashes)</t>
-  </si>
-  <si>
     <t>d_GenerateID2</t>
   </si>
   <si>
@@ -287,9 +275,6 @@
     <t>notes_part</t>
   </si>
   <si>
-    <t>Sélectionner le code de la grappe</t>
-  </si>
-  <si>
     <t>Avez-vous besoin de scanner le code barre sur le test diagnostique</t>
   </si>
   <si>
@@ -299,9 +284,6 @@
     <t>Donner la raison du test invalide</t>
   </si>
   <si>
-    <t>Le résultat final de ce participant est de: $ {final_result}</t>
-  </si>
-  <si>
     <t>Veuillez préciser le plan de traitement de ce participant ou expliquer pourquoi le traitement n'est pas possible.</t>
   </si>
   <si>
@@ -389,166 +371,256 @@
     <t xml:space="preserve">${d_result1} != 'Negative' </t>
   </si>
   <si>
-    <t>${d_result1} != 'Negative'  and selected(${d_why_invalid2},'Other')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if(${d_result1}="Positive" and ${d_result2}="Positive", "Positive",
- if(${d_result1}="Positive" and ${d_result2}="Negative", "Indeterminate", 
-  if(${d_result1}="Positive" and ${d_result2}="Invalid", "Positive", 
-   if(${d_result1}="Invalid" and ${d_result2}="Positive", "Positive", 
-    if(${d_result1}="Invalid" and ${d_result2}="Invalid", "Indeterminate", 
-     if(${d_result1}="Invalid" and ${d_result2}="Negative", "Negative", "Negative")
+    <t>This participant's final result is: ${d_final_result}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This participant's first test result was ${d_display_result1}.  This result requires a second test.  Continue this questionnaire to enter the participant's second test result.  </t>
+  </si>
+  <si>
+    <t>${d_result1}</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>${d_IDType} = "Scanner"</t>
+  </si>
+  <si>
+    <t>${d_final_result} = 'Positive'</t>
+  </si>
+  <si>
+    <t>bj_lf_tas2_3_fts_result_202006</t>
+  </si>
+  <si>
+    <t>regex(.,'^[0-9]{2}$')</t>
+  </si>
+  <si>
+    <t>d_eu_name</t>
+  </si>
+  <si>
+    <t>Select your evaluation unit (EU) Code</t>
+  </si>
+  <si>
+    <t>Sélectionner le code de l'unité d'évaluation (UE)</t>
+  </si>
+  <si>
+    <t>Entrer le code d'identification unique du test de diagnostic (doit doit avoir le format 12-123-12345 uniquement avec des nombres et des tirets)</t>
+  </si>
+  <si>
+    <t>Veuiller entrer le numéro de lot du kit FTS utilisé pour le premier test</t>
+  </si>
+  <si>
+    <t>Absence de ligne témoin/contrôle</t>
+  </si>
+  <si>
+    <t>Ligne témoin discontinue/partielle</t>
+  </si>
+  <si>
+    <t>Difficulté de migration d’échantillon</t>
+  </si>
+  <si>
+    <t>Trace de sang persiste (sang resté sur la bandelette/a obscurci les lignes)</t>
+  </si>
+  <si>
+    <t>Insuffisance du volume de sang dû à la pipette</t>
+  </si>
+  <si>
+    <t>Les resultats Invalides incluent les erreurs de test et les cas d'insuffisance de sang</t>
+  </si>
+  <si>
+    <t>Generation automatique</t>
+  </si>
+  <si>
+    <t>Ligne.temoin.discontinue/partielle</t>
+  </si>
+  <si>
+    <t>Difficulte.d’absorption.d’echantillon</t>
+  </si>
+  <si>
+    <t>Difficulte.de.migration.d’echantillon</t>
+  </si>
+  <si>
+    <t>Trace.de.sang.persiste.(sang.reste.sur.la.bandelette/a.obscurci.les.lignes)</t>
+  </si>
+  <si>
+    <t>Absence.de.ligne.temoin/controle</t>
+  </si>
+  <si>
+    <t>Insuffisance.du.volume.de.sang.du.a.la.pipette</t>
+  </si>
+  <si>
+    <t>Expliquer la raison 'Autre' d'invalidité du test</t>
+  </si>
+  <si>
+    <t>Veuillez entrer le numéro de lot du kit FTS utilisé pour le deuxième test</t>
+  </si>
+  <si>
+    <t>d_need_third_test</t>
+  </si>
+  <si>
+    <t>d_lotnumber3</t>
+  </si>
+  <si>
+    <t>d_result3</t>
+  </si>
+  <si>
+    <t>d_why_invalid3</t>
+  </si>
+  <si>
+    <t>Veuillez entrer le numéro de lot du kit FTS utilisé pour le troisième test</t>
+  </si>
+  <si>
+    <t>FTS - Test 3</t>
+  </si>
+  <si>
+    <t>d_why_invalid_other3</t>
+  </si>
+  <si>
+    <t>${d_result2}</t>
+  </si>
+  <si>
+    <t>d_display_result3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${d_result2} = 'Invalid' </t>
+  </si>
+  <si>
+    <t>selected(${d_why_invalid2},'Other')</t>
+  </si>
+  <si>
+    <t>selected(${d_why_invalid3},'Other')</t>
+  </si>
+  <si>
+    <t>${d_result3}</t>
+  </si>
+  <si>
+    <t>The code must be a two-digit number between 9 and 100</t>
+  </si>
+  <si>
+    <t>Le code doit être un nombre à deux chiffres entre 9 et 100</t>
+  </si>
+  <si>
+    <t>Enter unique ID from the diagnostic test (must be entered as 12-123-12345 upper case only with dashes)</t>
+  </si>
+  <si>
+    <t>. = ${d_GenerateID}</t>
+  </si>
+  <si>
+    <t>Le code répété doit être le même</t>
+  </si>
+  <si>
+    <t>regex(.,'^[0-9]{2}-[0-9]{3}-[0-9]{6}$')</t>
+  </si>
+  <si>
+    <t>Must be entered as 12-123-12345 only with number and dashes)</t>
+  </si>
+  <si>
+    <t>Doit être entré au format 12-123-123456 uniquement avec desnombre et tirets</t>
+  </si>
+  <si>
+    <t>${d_IDType} = "Generation automatique"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${d_result1} = 'Positive' or ${d_result1} = 'Invalid' </t>
+  </si>
+  <si>
+    <t>FTS -  Test 3</t>
+  </si>
+  <si>
+    <t>Please enter FTS lot number 3</t>
+  </si>
+  <si>
+    <t>Give reason for invalid test 3</t>
+  </si>
+  <si>
+    <t>Donner la raison d'invalidité du test 3</t>
+  </si>
+  <si>
+    <t>Expliquer la raison 'Autre' d'invalidité du test 3</t>
+  </si>
+  <si>
+    <t>Expliquer la raison 'Autre' d'invalidité du test 2</t>
+  </si>
+  <si>
+    <t>Donner la raison d'invalidité du test 2</t>
+  </si>
+  <si>
+    <t>Give reason for invalid test 2</t>
+  </si>
+  <si>
+    <t>Give 'Other' reason for invalid test 3</t>
+  </si>
+  <si>
+    <t>Give 'Other' reason for invalid test 2</t>
+  </si>
+  <si>
+    <t>(${d_result1} = 'Positive' and ${d_result2} = 'Negative')
+or (${d_result1} = 'Positive' and ${d_result2} = 'Invalid')
+or (${d_result1} = 'Invalid' and ${d_result2} = 'Positive')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${d_result3} = 'Invalid' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">${d_result1} = 'Invalid' </t>
+  </si>
+  <si>
+    <t>Notes additionnelles</t>
+  </si>
+  <si>
+    <t>Additional Notes on form</t>
+  </si>
+  <si>
+    <t>if(${d_result1}="Positive" and ${d_result2}="Positive", "Positive",
+ if(${d_result1}="Positive" and ${d_result2}="Negative" and ${d_result3}="Negative", "Negative",
+  if(${d_result1}="Positive" and ${d_result2}="Negative" and ${d_result3}="Positive", "Positive",
+   if(${d_result1}="Positive" and ${d_result2}="Invalid" and ${d_result3}="Negative", "Negative",
+    if(${d_result1}="Positive" and ${d_result2}="Invalid" and ${d_result3}="Positive", "Positive",
+     if(${d_result1}="Invalid" and ${d_result2}="Positive" and ${d_result3}="Positive", "Positive",
+      if(${d_result1}="Invalid" and ${d_result2}="Positive" and ${d_result3}="Negative", "Negative",
+       if(${d_result1}="Invalid" and ${d_result2}="Invalid", "Invalid",
+        if(${d_result1}="Invalid" and ${d_result2}="Negative", "Negative", "Undetermined" )
+       )
+      )
+     )
     )
    )
   )
  )
-)
-</t>
-  </si>
-  <si>
-    <t>This participant's final result is: ${d_final_result}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This participant's first test result was ${d_display_result1}.  This result requires a second test.  Continue this questionnaire to enter the participant's second test result.  </t>
-  </si>
-  <si>
-    <t>${d_result1}</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>${d_IDType} = "Scanner"</t>
-  </si>
-  <si>
-    <t>${d_IDType} = "ID_generation"</t>
-  </si>
-  <si>
-    <t>${d_final_result} = 'Positive'</t>
-  </si>
-  <si>
-    <t>bj_lf_tas2_3_fts_result_202006</t>
-  </si>
-  <si>
-    <t>3. TAS FL FTS Résultat</t>
-  </si>
-  <si>
-    <t>regex(.,'^[0-9]{2}$')</t>
-  </si>
-  <si>
-    <t>The code must be a two-digit number between 9 and 1000</t>
-  </si>
-  <si>
-    <t>Le code doit être un nombre à deux chiffres entre 9 et 1000</t>
-  </si>
-  <si>
-    <t>d_eu_name</t>
-  </si>
-  <si>
-    <t>Select your evaluation unit (EU) Code</t>
-  </si>
-  <si>
-    <t>Sélectionner le code de l'unité d'évaluation (UE)</t>
-  </si>
-  <si>
-    <t>Entrer le code d'identification unique du test de diagnostic (doit doit avoir le format 12-123-12345 uniquement avec des nombres et des tirets)</t>
-  </si>
-  <si>
-    <t>Veuiller entrer le numéro de lot du kit FTS utilisé pour le premier test</t>
-  </si>
-  <si>
-    <t>Absence de ligne témoin/contrôle</t>
-  </si>
-  <si>
-    <t>Ligne témoin discontinue/partielle</t>
-  </si>
-  <si>
-    <t>Difficulté de migration d’échantillon</t>
-  </si>
-  <si>
-    <t>Trace de sang persiste (sang resté sur la bandelette/a obscurci les lignes)</t>
-  </si>
-  <si>
-    <t>Insuffisance du volume de sang dû à la pipette</t>
-  </si>
-  <si>
-    <t>Les resultats Invalides incluent les erreurs de test et les cas d'insuffisance de sang</t>
-  </si>
-  <si>
-    <t>Additional Nontes on form</t>
-  </si>
-  <si>
-    <t>Nontes supplémentaires</t>
-  </si>
-  <si>
-    <t>Generation automatique</t>
-  </si>
-  <si>
-    <t>Ligne.temoin.discontinue/partielle</t>
-  </si>
-  <si>
-    <t>Difficulte.d’absorption.d’echantillon</t>
-  </si>
-  <si>
-    <t>Difficulte.de.migration.d’echantillon</t>
-  </si>
-  <si>
-    <t>Trace.de.sang.persiste.(sang.reste.sur.la.bandelette/a.obscurci.les.lignes)</t>
-  </si>
-  <si>
-    <t>Absence.de.ligne.temoin/controle</t>
-  </si>
-  <si>
-    <t>Insuffisance.du.volume.de.sang.du.a.la.pipette</t>
-  </si>
-  <si>
-    <t>Expliquer la raison 'Autre' d'invalidité du test</t>
-  </si>
-  <si>
-    <t>Le premier résultat du test de ce participant est $ {display_result1}. Ce résultat nécessite un deuxième test. Continuez ce questionnaire pour entrer le résultat du deuxième test du participant.</t>
-  </si>
-  <si>
-    <t>Veuillez entrer le numéro de lot du kit FTS utilisé pour le deuxième test</t>
-  </si>
-  <si>
-    <t>Donner la raison d'invalidité du test</t>
-  </si>
-  <si>
-    <t>d_need_third_test</t>
-  </si>
-  <si>
-    <t>d_lotnumber3</t>
-  </si>
-  <si>
-    <t>d_result3</t>
-  </si>
-  <si>
-    <t>d_why_invalid3</t>
-  </si>
-  <si>
-    <t>Le second résultat du test de ce participant est $ {display_result1}. Ce résultat nécessite un troisième test. Continuez ce questionnaire pour entrer le résultat du troisième du test du participant.</t>
-  </si>
-  <si>
-    <t>Veuillez entrer le numéro de lot du kit FTS utilisé pour le troisième test</t>
-  </si>
-  <si>
-    <t>FTS - Test 3</t>
+)</t>
+  </si>
+  <si>
+    <t>3. TAS2 FL FTS Résultat</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Invalid includes testing errors and insufficient blood</t>
+  </si>
+  <si>
+    <t>Invalide comprend les erreurs de test et le sang insuffisant</t>
+  </si>
+  <si>
+    <t>Le premier résultat du test de ce participant est ${d_display_result1}. Ce résultat nécessite un deuxième test. Continuez ce questionnaire pour entrer le résultat du deuxième test du participant.</t>
+  </si>
+  <si>
+    <t>Le second résultat du test de ce participant est ${d_display_result2}. Ce résultat nécessite un troisième test. Continuez ce questionnaire pour entrer le résultat du troisième du test du participant.</t>
+  </si>
+  <si>
+    <t>Entrer l'identifiant de l'enregistreur</t>
+  </si>
+  <si>
+    <t>Le résultat final de ce participant est: ${d_final_result}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -612,15 +684,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE4D5"/>
+        <bgColor rgb="FFFBE4D5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -643,55 +721,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -700,6 +787,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -986,17 +1079,17 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.609375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.609375" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.21875" customWidth="1"/>
     <col min="5" max="5" width="47.5" customWidth="1"/>
     <col min="6" max="6" width="47.38671875" customWidth="1"/>
@@ -1004,7 +1097,7 @@
     <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.5" customWidth="1"/>
-    <col min="11" max="11" width="30.609375" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="49.33203125" style="16" customWidth="1"/>
     <col min="12" max="12" width="12.609375" customWidth="1"/>
     <col min="13" max="13" width="9.71875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="35.38671875" customWidth="1"/>
@@ -1013,49 +1106,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="12" t="s">
+      <c r="J1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="11" t="s">
         <v>12</v>
       </c>
       <c r="P1" s="2" t="s">
@@ -1064,50 +1157,54 @@
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="62.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="15"/>
+      <c r="E2" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="G2" s="8"/>
-      <c r="H2" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>132</v>
+      <c r="H2" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="4"/>
+      <c r="M2" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -1115,23 +1212,25 @@
       <c r="I3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="3"/>
+      <c r="M3" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="N3" s="3"/>
       <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -1139,581 +1238,588 @@
       <c r="I4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="3"/>
+      <c r="M4" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="N4" s="3"/>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="E5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="4"/>
       <c r="K5" s="3"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="3"/>
+      <c r="M5" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="N5" s="3"/>
       <c r="O5" s="7"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" s="1" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="K7" s="4" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="L7" s="4"/>
-      <c r="M7" s="3"/>
+      <c r="M7" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
-        <v>34</v>
+    <row r="8" spans="1:16" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="3"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="4"/>
+      <c r="C9" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="7"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="3"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
+      <c r="M9" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
     </row>
     <row r="10" spans="1:16" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K10" s="10"/>
       <c r="L10" s="4"/>
       <c r="M10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="K11" s="11"/>
+        <v>109</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>176</v>
+      </c>
       <c r="L11" s="4"/>
       <c r="M11" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K12" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="L12" s="4"/>
       <c r="M12" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="1" customFormat="1" ht="62.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15"/>
+      <c r="K15" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K13" s="11" t="s">
+      <c r="C16" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" t="s">
+        <v>183</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="M16" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" ht="62.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16"/>
-      <c r="E16" t="s">
-        <v>155</v>
-      </c>
-      <c r="F16"/>
-      <c r="K16" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>96</v>
+        <v>72</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>171</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>118</v>
+        <v>170</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>173</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>156</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>118</v>
+        <v>169</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" t="s">
-        <v>153</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>124</v>
+        <v>75</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="1" customFormat="1" ht="62.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>122</v>
+        <v>141</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>52</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>94</v>
+        <v>142</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="F21"/>
-      <c r="K21" s="11" t="s">
-        <v>118</v>
+      <c r="K21" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>96</v>
+        <v>143</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>164</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>163</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>118</v>
+        <v>146</v>
+      </c>
+      <c r="F22" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>70</v>
+        <v>144</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
-        <v>156</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>118</v>
+        <v>167</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" t="s">
-        <v>40</v>
+        <v>147</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>172</v>
       </c>
       <c r="E24" t="s">
-        <v>153</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>119</v>
+        <v>168</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
-      <c r="K25" s="11"/>
+      <c r="K25" s="10"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:13" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>118</v>
+        <v>149</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
-      </c>
-      <c r="K27" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="L27" s="17" t="s">
-        <v>120</v>
+        <v>76</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28" t="s">
-        <v>53</v>
+        <v>77</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>118</v>
+        <v>187</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" t="s">
-        <v>40</v>
+        <v>78</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="E29" t="s">
-        <v>90</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>127</v>
+        <v>84</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="D30" t="s">
-        <v>40</v>
+        <v>80</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>178</v>
       </c>
       <c r="E30" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
         <v>42</v>
-      </c>
-      <c r="B32" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1728,7 +1834,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
@@ -1750,285 +1856,285 @@
         <v>15</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
         <v>48</v>
       </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
         <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" t="s">
         <v>106</v>
-      </c>
-      <c r="D16" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2044,7 +2150,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
@@ -2070,16 +2176,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C2">
         <v>20200402</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/LF/TAS/Benin/bj_lf_tas2_3_fts_result_202006.xlsx
+++ b/LF/TAS/Benin/bj_lf_tas2_3_fts_result_202006.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\TAS\Benin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1554127E-1A7C-4065-8879-03FAA0BFF0F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C81B48-45ED-4C7B-A8D3-AC6C4168CF4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="209">
   <si>
     <t>form_title</t>
   </si>
@@ -581,9 +581,6 @@
     <t>Le résultat final de ce participant est: ${d_final_result}</t>
   </si>
   <si>
-    <t>bj_lf_tas2_3_fts_result_202008</t>
-  </si>
-  <si>
     <t>Adja-Ouere</t>
   </si>
   <si>
@@ -662,9 +659,6 @@
     <t>. = ${d_cluster_id1}</t>
   </si>
   <si>
-    <t>3. Benin - TAS2 FL FTS Résultat (Août 2020)</t>
-  </si>
-  <si>
     <t>Entrer le code d'identification unique du test de diagnostic (doit doit avoir le format 12-123-123456 uniquement avec des nombres et des tirets)</t>
   </si>
   <si>
@@ -672,6 +666,15 @@
   </si>
   <si>
     <t>Must be entered as 12-123-123456 only with number and dashes)</t>
+  </si>
+  <si>
+    <t>Invalide</t>
+  </si>
+  <si>
+    <t>3. Benin - TAS2 FL FTS Résultat (Août 2020) V2</t>
+  </si>
+  <si>
+    <t>bj_lf_tas2_3_fts_result_202008_v2</t>
   </si>
 </sst>
 </file>
@@ -1207,34 +1210,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.25" style="12" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.609375" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.21875" style="12" customWidth="1"/>
     <col min="5" max="5" width="47.5" style="15" customWidth="1"/>
-    <col min="6" max="6" width="47.375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.38671875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="12.609375" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.5" style="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.5" style="15" customWidth="1"/>
-    <col min="11" max="11" width="49.375" style="8" customWidth="1"/>
-    <col min="12" max="12" width="12.625" customWidth="1"/>
-    <col min="13" max="13" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.375" customWidth="1"/>
-    <col min="15" max="15" width="13.875" customWidth="1"/>
-    <col min="16" max="16" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="49.38671875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="12.609375" customWidth="1"/>
+    <col min="13" max="13" width="9.71875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.38671875" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" customWidth="1"/>
+    <col min="16" max="16" width="36.609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="17" t="s">
         <v>5</v>
       </c>
@@ -1284,7 +1287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="62.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="20" t="s">
         <v>24</v>
       </c>
@@ -1322,9 +1325,9 @@
       <c r="O2" s="25"/>
       <c r="P2" s="20"/>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>114</v>
@@ -1350,9 +1353,9 @@
       <c r="O3" s="30"/>
       <c r="P3" s="20"/>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>48</v>
@@ -1377,33 +1380,33 @@
       <c r="N4" s="29"/>
       <c r="O4" s="30"/>
       <c r="P4" s="20" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F5" s="31"/>
       <c r="G5" s="25"/>
       <c r="H5" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="I5" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="J5" s="33" t="s">
         <v>200</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>201</v>
       </c>
       <c r="K5" s="29"/>
       <c r="L5" s="21"/>
@@ -1414,31 +1417,31 @@
       <c r="O5" s="30"/>
       <c r="P5" s="20"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E6" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="31" t="s">
         <v>196</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>197</v>
       </c>
       <c r="G6" s="25"/>
       <c r="H6" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J6" s="33" t="s">
         <v>149</v>
@@ -1452,7 +1455,7 @@
       <c r="O6" s="30"/>
       <c r="P6" s="20"/>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="20" t="s">
         <v>40</v>
       </c>
@@ -1480,7 +1483,7 @@
       <c r="O7" s="30"/>
       <c r="P7" s="20"/>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="20" t="s">
         <v>45</v>
       </c>
@@ -1510,7 +1513,7 @@
       <c r="O8" s="29"/>
       <c r="P8" s="20"/>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="1" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="20" t="s">
         <v>27</v>
       </c>
@@ -1518,11 +1521,11 @@
         <v>53</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="21"/>
@@ -1530,7 +1533,7 @@
         <v>150</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J9" s="38" t="s">
         <v>151</v>
@@ -1546,7 +1549,7 @@
       <c r="O9" s="29"/>
       <c r="P9" s="20"/>
     </row>
-    <row r="10" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="30" t="s">
         <v>27</v>
       </c>
@@ -1582,7 +1585,7 @@
       <c r="O10" s="21"/>
       <c r="P10" s="30"/>
     </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="20" t="s">
         <v>27</v>
       </c>
@@ -1610,7 +1613,7 @@
       <c r="O11" s="25"/>
       <c r="P11" s="20"/>
     </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="20" t="s">
         <v>91</v>
       </c>
@@ -1642,7 +1645,7 @@
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
     </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="20" t="s">
         <v>103</v>
       </c>
@@ -1672,7 +1675,7 @@
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
     </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="20" t="s">
         <v>33</v>
       </c>
@@ -1704,7 +1707,7 @@
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
     </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="20" t="s">
         <v>63</v>
       </c>
@@ -1730,7 +1733,7 @@
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
     </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="1" customFormat="1" ht="62.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="20" t="s">
         <v>46</v>
       </c>
@@ -1758,7 +1761,7 @@
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
     </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="20" t="s">
         <v>27</v>
       </c>
@@ -1788,7 +1791,7 @@
       <c r="O17" s="20"/>
       <c r="P17" s="20"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="20" t="s">
         <v>91</v>
       </c>
@@ -1822,7 +1825,7 @@
       <c r="O18" s="41"/>
       <c r="P18" s="41"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="20" t="s">
         <v>103</v>
       </c>
@@ -1854,7 +1857,7 @@
       <c r="O19" s="41"/>
       <c r="P19" s="41"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="20" t="s">
         <v>33</v>
       </c>
@@ -1886,7 +1889,7 @@
       <c r="O20" s="41"/>
       <c r="P20" s="41"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="20" t="s">
         <v>63</v>
       </c>
@@ -1912,7 +1915,7 @@
       <c r="O21" s="41"/>
       <c r="P21" s="41"/>
     </row>
-    <row r="22" spans="1:16" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="1" customFormat="1" ht="62.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="20" t="s">
         <v>46</v>
       </c>
@@ -1942,7 +1945,7 @@
       <c r="O22" s="20"/>
       <c r="P22" s="20"/>
     </row>
-    <row r="23" spans="1:16" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="1" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="20" t="s">
         <v>27</v>
       </c>
@@ -1972,7 +1975,7 @@
       <c r="O23" s="20"/>
       <c r="P23" s="20"/>
     </row>
-    <row r="24" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="20" t="s">
         <v>91</v>
       </c>
@@ -2006,7 +2009,7 @@
       <c r="O24" s="41"/>
       <c r="P24" s="41"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="20" t="s">
         <v>103</v>
       </c>
@@ -2038,7 +2041,7 @@
       <c r="O25" s="41"/>
       <c r="P25" s="41"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="20" t="s">
         <v>33</v>
       </c>
@@ -2068,12 +2071,12 @@
       <c r="O26" s="41"/>
       <c r="P26" s="41"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="K27" s="6"/>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>63</v>
       </c>
@@ -2087,7 +2090,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>63</v>
       </c>
@@ -2101,7 +2104,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
@@ -2118,7 +2121,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -2135,7 +2138,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -2149,7 +2152,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -2157,7 +2160,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -2177,18 +2180,18 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.38671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.71875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2205,230 +2208,230 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="B7" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="B8" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B9" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C11" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -2442,7 +2445,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -2456,7 +2459,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -2470,7 +2473,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -2484,7 +2487,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -2498,7 +2501,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -2512,7 +2515,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>90</v>
       </c>
@@ -2523,10 +2526,10 @@
         <v>87</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -2540,7 +2543,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -2554,7 +2557,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -2568,7 +2571,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -2582,7 +2585,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -2596,7 +2599,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -2610,7 +2613,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>102</v>
       </c>
@@ -2636,18 +2639,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="44.125" customWidth="1"/>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.38671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2661,15 +2664,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="C2">
-        <v>20200818</v>
+        <v>20200828</v>
       </c>
       <c r="D2" t="s">
         <v>170</v>
